--- a/Synthese/Doc Projet/B65_S1_Planification_Erwan_Palanque.xlsx
+++ b/Synthese/Doc Projet/B65_S1_Planification_Erwan_Palanque.xlsx
@@ -1500,6 +1500,604 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="top" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF255B01"/>
       </font>
       <fill>
@@ -1590,604 +2188,6 @@
       <font>
         <color rgb="FFA40000"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="top" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2462,7 +2462,7 @@
                   <c:v>2340</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>480</c:v>
+                  <c:v>1180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2513,13 +2513,13 @@
                   <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2740</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1140</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>910</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2534,11 +2534,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="112396800"/>
-        <c:axId val="68997056"/>
+        <c:axId val="128339456"/>
+        <c:axId val="88764352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="112396800"/>
+        <c:axId val="128339456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2557,7 +2557,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68997056"/>
+        <c:crossAx val="88764352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2565,7 +2565,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68997056"/>
+        <c:axId val="88764352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2605,7 +2605,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112396800"/>
+        <c:crossAx val="128339456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2703,56 +2703,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B12:AA38" totalsRowCount="1" headerRowDxfId="60" dataDxfId="59" totalsRowDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B12:AA38" totalsRowCount="1" headerRowDxfId="54" dataDxfId="53" totalsRowDxfId="52">
   <tableColumns count="26">
-    <tableColumn id="1" name="Numéro de tâche" dataDxfId="57" totalsRowDxfId="25"/>
-    <tableColumn id="2" name="Description générale de la tâche" totalsRowFunction="count" dataDxfId="56" totalsRowDxfId="24"/>
-    <tableColumn id="3" name="Prédécesseurs" dataDxfId="55" totalsRowDxfId="23"/>
-    <tableColumn id="4" name="Niveau de priorité" dataDxfId="54" totalsRowDxfId="22"/>
-    <tableColumn id="5" name="Niveau de difficulté" dataDxfId="53" totalsRowDxfId="21"/>
-    <tableColumn id="6" name="Temps requis (minutes)" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="20"/>
-    <tableColumn id="7" name="Prévision du Sprint où la tâche doit être terminée" dataDxfId="51" totalsRowDxfId="19"/>
-    <tableColumn id="8" name="Temps investis (minutes)" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="18"/>
-    <tableColumn id="9" name="% d'avancement au Sprint 1" dataDxfId="49" totalsRowDxfId="17"/>
-    <tableColumn id="10" name="% d'avancement au Sprint 2" dataDxfId="48" totalsRowDxfId="16"/>
-    <tableColumn id="11" name="% d'avancement au Sprint 3" dataDxfId="47" totalsRowDxfId="15"/>
-    <tableColumn id="12" name="% d'avancement au Sprint 4" dataDxfId="46" totalsRowDxfId="14"/>
-    <tableColumn id="13" name="Pourquoi le retard" dataDxfId="45" totalsRowDxfId="13"/>
-    <tableColumn id="14" name="Moyens envisagés pour solutionner le problème" dataDxfId="44" totalsRowDxfId="12"/>
-    <tableColumn id="15" name="Sprint 1" dataDxfId="43" totalsRowDxfId="11">
+    <tableColumn id="1" name="Numéro de tâche" dataDxfId="51" totalsRowDxfId="25"/>
+    <tableColumn id="2" name="Description générale de la tâche" totalsRowFunction="count" dataDxfId="50" totalsRowDxfId="24"/>
+    <tableColumn id="3" name="Prédécesseurs" dataDxfId="49" totalsRowDxfId="23"/>
+    <tableColumn id="4" name="Niveau de priorité" dataDxfId="48" totalsRowDxfId="22"/>
+    <tableColumn id="5" name="Niveau de difficulté" dataDxfId="47" totalsRowDxfId="21"/>
+    <tableColumn id="6" name="Temps requis (minutes)" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="20"/>
+    <tableColumn id="7" name="Prévision du Sprint où la tâche doit être terminée" dataDxfId="45" totalsRowDxfId="19"/>
+    <tableColumn id="8" name="Temps investis (minutes)" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="18"/>
+    <tableColumn id="9" name="% d'avancement au Sprint 1" dataDxfId="43" totalsRowDxfId="17"/>
+    <tableColumn id="10" name="% d'avancement au Sprint 2" dataDxfId="42" totalsRowDxfId="16"/>
+    <tableColumn id="11" name="% d'avancement au Sprint 3" dataDxfId="41" totalsRowDxfId="15"/>
+    <tableColumn id="12" name="% d'avancement au Sprint 4" dataDxfId="40" totalsRowDxfId="14"/>
+    <tableColumn id="13" name="Pourquoi le retard" dataDxfId="39" totalsRowDxfId="13"/>
+    <tableColumn id="14" name="Moyens envisagés pour solutionner le problème" dataDxfId="38" totalsRowDxfId="12"/>
+    <tableColumn id="15" name="Sprint 1" dataDxfId="37" totalsRowDxfId="11">
       <calculatedColumnFormula>IF(OR($H13="",J13=""),"Indef",IF(J13&gt;=1,"Terminé",IF($H13&lt;=P$12,"Retard",IF(J13&gt;0,"Avancement","Sprint suivant"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Sprint 2" dataDxfId="42" totalsRowDxfId="10">
+    <tableColumn id="16" name="Sprint 2" dataDxfId="36" totalsRowDxfId="10">
       <calculatedColumnFormula>IF(OR($H13="",K13=""),"Indef",IF(K13&gt;=1,"Terminé",IF($H13&lt;=Q$12,"Retard",IF(K13&gt;0,"Avancement","Sprint suivant"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="Sprint 3" dataDxfId="41" totalsRowDxfId="9">
+    <tableColumn id="17" name="Sprint 3" dataDxfId="35" totalsRowDxfId="9">
       <calculatedColumnFormula>IF(OR($H13="",L13=""),"Indef",IF(L13&gt;=1,"Terminé",IF($H13&lt;=R$12,"Retard",IF(L13&gt;0,"Avancement","Sprint suivant"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="Sprint 4" dataDxfId="40" totalsRowDxfId="8">
+    <tableColumn id="18" name="Sprint 4" dataDxfId="34" totalsRowDxfId="8">
       <calculatedColumnFormula>IF(OR($H13="",M13=""),"Indef",IF(M13&gt;=1,"Terminé",IF($H13&lt;=S$12,"Retard",IF(M13&gt;0,"Avancement","Sprint suivant"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="Prev 00" dataDxfId="39" totalsRowDxfId="7">
+    <tableColumn id="25" name="Prev 00" dataDxfId="33" totalsRowDxfId="7">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 1",Table1[[#This Row],[Temps requis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="Prev 01" dataDxfId="38" totalsRowDxfId="6">
+    <tableColumn id="26" name="Prev 01" dataDxfId="32" totalsRowDxfId="6">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 2",Table1[[#This Row],[Temps requis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="Prev 02" dataDxfId="37" totalsRowDxfId="5">
+    <tableColumn id="27" name="Prev 02" dataDxfId="31" totalsRowDxfId="5">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 3",Table1[[#This Row],[Temps requis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="Prev 03" dataDxfId="36" totalsRowDxfId="4">
+    <tableColumn id="28" name="Prev 03" dataDxfId="30" totalsRowDxfId="4">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 4",Table1[[#This Row],[Temps requis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="Temps S1" dataDxfId="35" totalsRowDxfId="3">
+    <tableColumn id="21" name="Temps S1" dataDxfId="29" totalsRowDxfId="3">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 1",Table1[[#This Row],[Temps investis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="Temps S2" dataDxfId="34" totalsRowDxfId="2">
+    <tableColumn id="23" name="Temps S2" dataDxfId="28" totalsRowDxfId="2">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 2",Table1[[#This Row],[Temps investis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="Temps S3" dataDxfId="33" totalsRowDxfId="1">
+    <tableColumn id="22" name="Temps S3" dataDxfId="27" totalsRowDxfId="1">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 3",Table1[[#This Row],[Temps investis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="Temps S4" dataDxfId="32" totalsRowDxfId="0">
+    <tableColumn id="24" name="Temps S4" dataDxfId="26" totalsRowDxfId="0">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 4",Table1[[#This Row],[Temps investis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3050,7 +3050,7 @@
   <dimension ref="A1:AH258"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3142,7 +3142,7 @@
       <c r="A9" s="2"/>
       <c r="C9" s="48" t="str">
         <f>"Temps prévu : "&amp;FLOOR(SUM(Table1[Temps requis (minutes)])/60,1)&amp;" heures "&amp;SUM(Table1[Temps requis (minutes)])-FLOOR(SUM(Table1[Temps requis (minutes)])/60,1)*60&amp;" minutes"</f>
-        <v>Temps prévu : 99 heures 0 minutes</v>
+        <v>Temps prévu : 110 heures 40 minutes</v>
       </c>
       <c r="O9" s="4"/>
     </row>
@@ -3150,7 +3150,7 @@
       <c r="A10" s="2"/>
       <c r="C10" s="48" t="str">
         <f>"Temps réel : "&amp;FLOOR(SUM(Table1[Temps investis (minutes)])/60,1)&amp;" heures "&amp;SUM(Table1[Temps investis (minutes)])-FLOOR(SUM(Table1[Temps investis (minutes)])/60,1)*60&amp;" minutes"</f>
-        <v>Temps réel : 13 heures 20 minutes</v>
+        <v>Temps réel : 93 heures 10 minutes</v>
       </c>
       <c r="O10" s="4"/>
     </row>
@@ -3365,19 +3365,19 @@
       <c r="N14" s="33"/>
       <c r="O14" s="34"/>
       <c r="P14" s="8" t="str">
-        <f>IF(OR($H14="",J14=""),"Indef",IF(J14&gt;=1,"Terminé",IF($H14&lt;=P$12,"Retard",IF(J14&gt;0,"Avancement","Sprint suivant"))))</f>
+        <f t="shared" ref="P14:S16" si="2">IF(OR($H14="",J14=""),"Indef",IF(J14&gt;=1,"Terminé",IF($H14&lt;=P$12,"Retard",IF(J14&gt;0,"Avancement","Sprint suivant"))))</f>
         <v>Indef</v>
       </c>
       <c r="Q14" s="8" t="str">
-        <f>IF(OR($H14="",K14=""),"Indef",IF(K14&gt;=1,"Terminé",IF($H14&lt;=Q$12,"Retard",IF(K14&gt;0,"Avancement","Sprint suivant"))))</f>
+        <f t="shared" si="2"/>
         <v>Terminé</v>
       </c>
       <c r="R14" s="8" t="str">
-        <f>IF(OR($H14="",L14=""),"Indef",IF(L14&gt;=1,"Terminé",IF($H14&lt;=R$12,"Retard",IF(L14&gt;0,"Avancement","Sprint suivant"))))</f>
+        <f t="shared" si="2"/>
         <v>Terminé</v>
       </c>
       <c r="S14" s="8" t="str">
-        <f>IF(OR($H14="",M14=""),"Indef",IF(M14&gt;=1,"Terminé",IF($H14&lt;=S$12,"Retard",IF(M14&gt;0,"Avancement","Sprint suivant"))))</f>
+        <f t="shared" si="2"/>
         <v>Terminé</v>
       </c>
       <c r="T14" s="9">
@@ -3459,19 +3459,19 @@
       <c r="N15" s="33"/>
       <c r="O15" s="34"/>
       <c r="P15" s="8" t="str">
-        <f>IF(OR($H15="",J15=""),"Indef",IF(J15&gt;=1,"Terminé",IF($H15&lt;=P$12,"Retard",IF(J15&gt;0,"Avancement","Sprint suivant"))))</f>
+        <f t="shared" si="2"/>
         <v>Indef</v>
       </c>
       <c r="Q15" s="8" t="str">
-        <f>IF(OR($H15="",K15=""),"Indef",IF(K15&gt;=1,"Terminé",IF($H15&lt;=Q$12,"Retard",IF(K15&gt;0,"Avancement","Sprint suivant"))))</f>
+        <f t="shared" si="2"/>
         <v>Terminé</v>
       </c>
       <c r="R15" s="8" t="str">
-        <f>IF(OR($H15="",L15=""),"Indef",IF(L15&gt;=1,"Terminé",IF($H15&lt;=R$12,"Retard",IF(L15&gt;0,"Avancement","Sprint suivant"))))</f>
+        <f t="shared" si="2"/>
         <v>Terminé</v>
       </c>
       <c r="S15" s="8" t="str">
-        <f>IF(OR($H15="",M15=""),"Indef",IF(M15&gt;=1,"Terminé",IF($H15&lt;=S$12,"Retard",IF(M15&gt;0,"Avancement","Sprint suivant"))))</f>
+        <f t="shared" si="2"/>
         <v>Terminé</v>
       </c>
       <c r="T15" s="9">
@@ -3535,30 +3535,38 @@
       <c r="H16" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="28"/>
+      <c r="I16" s="28">
+        <v>250</v>
+      </c>
       <c r="J16" s="31">
         <v>0.2</v>
       </c>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
+      <c r="K16" s="32">
+        <v>1</v>
+      </c>
+      <c r="L16" s="32">
+        <v>1</v>
+      </c>
+      <c r="M16" s="32">
+        <v>1</v>
+      </c>
       <c r="N16" s="33"/>
       <c r="O16" s="34"/>
       <c r="P16" s="17" t="str">
-        <f>IF(OR($H16="",J16=""),"Indef",IF(J16&gt;=1,"Terminé",IF($H16&lt;=P$12,"Retard",IF(J16&gt;0,"Avancement","Sprint suivant"))))</f>
+        <f t="shared" si="2"/>
         <v>Avancement</v>
       </c>
       <c r="Q16" s="17" t="str">
-        <f>IF(OR($H16="",K16=""),"Indef",IF(K16&gt;=1,"Terminé",IF($H16&lt;=Q$12,"Retard",IF(K16&gt;0,"Avancement","Sprint suivant"))))</f>
-        <v>Indef</v>
+        <f t="shared" si="2"/>
+        <v>Terminé</v>
       </c>
       <c r="R16" s="17" t="str">
-        <f>IF(OR($H16="",L16=""),"Indef",IF(L16&gt;=1,"Terminé",IF($H16&lt;=R$12,"Retard",IF(L16&gt;0,"Avancement","Sprint suivant"))))</f>
-        <v>Indef</v>
+        <f t="shared" si="2"/>
+        <v>Terminé</v>
       </c>
       <c r="S16" s="17" t="str">
-        <f>IF(OR($H16="",M16=""),"Indef",IF(M16&gt;=1,"Terminé",IF($H16&lt;=S$12,"Retard",IF(M16&gt;0,"Avancement","Sprint suivant"))))</f>
-        <v>Indef</v>
+        <f t="shared" si="2"/>
+        <v>Terminé</v>
       </c>
       <c r="T16" s="18">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 1",Table1[[#This Row],[Temps requis (minutes)]],0)</f>
@@ -3582,7 +3590,7 @@
       </c>
       <c r="Y16" s="18">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 2",Table1[[#This Row],[Temps investis (minutes)]],0)</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="Z16" s="18">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 3",Table1[[#This Row],[Temps investis (minutes)]],0)</f>
@@ -3623,30 +3631,38 @@
       <c r="H17" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="28"/>
+      <c r="I17" s="28">
+        <v>350</v>
+      </c>
       <c r="J17" s="35">
         <v>0</v>
       </c>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
+      <c r="K17" s="36">
+        <v>1</v>
+      </c>
+      <c r="L17" s="36">
+        <v>1</v>
+      </c>
+      <c r="M17" s="36">
+        <v>1</v>
+      </c>
       <c r="N17" s="33"/>
       <c r="O17" s="34"/>
       <c r="P17" s="17" t="str">
-        <f t="shared" ref="P17:P20" si="2">IF(OR($H17="",J17=""),"Indef",IF(J17&gt;=1,"Terminé",IF($H17&lt;=P$12,"Retard",IF(J17&gt;0,"Avancement","Sprint suivant"))))</f>
+        <f t="shared" ref="P17:P20" si="3">IF(OR($H17="",J17=""),"Indef",IF(J17&gt;=1,"Terminé",IF($H17&lt;=P$12,"Retard",IF(J17&gt;0,"Avancement","Sprint suivant"))))</f>
         <v>Sprint suivant</v>
       </c>
       <c r="Q17" s="17" t="str">
-        <f t="shared" ref="Q17:S37" si="3">IF(OR($H17="",K17=""),"Indef",IF(K17&gt;=1,"Terminé",IF($H17&lt;=Q$12,"Retard",IF(K17&gt;0,"Avancement","Sprint suivant"))))</f>
-        <v>Indef</v>
+        <f t="shared" ref="Q17:S37" si="4">IF(OR($H17="",K17=""),"Indef",IF(K17&gt;=1,"Terminé",IF($H17&lt;=Q$12,"Retard",IF(K17&gt;0,"Avancement","Sprint suivant"))))</f>
+        <v>Terminé</v>
       </c>
       <c r="R17" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Indef</v>
+        <f t="shared" si="4"/>
+        <v>Terminé</v>
       </c>
       <c r="S17" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Indef</v>
+        <f t="shared" si="4"/>
+        <v>Terminé</v>
       </c>
       <c r="T17" s="18">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 1",Table1[[#This Row],[Temps requis (minutes)]],0)</f>
@@ -3670,7 +3686,7 @@
       </c>
       <c r="Y17" s="18">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 2",Table1[[#This Row],[Temps investis (minutes)]],0)</f>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="Z17" s="18">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 3",Table1[[#This Row],[Temps investis (minutes)]],0)</f>
@@ -3711,30 +3727,38 @@
       <c r="H18" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="28"/>
+      <c r="I18" s="28">
+        <v>300</v>
+      </c>
       <c r="J18" s="35">
         <v>0</v>
       </c>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
+      <c r="K18" s="36">
+        <v>1</v>
+      </c>
+      <c r="L18" s="36">
+        <v>1</v>
+      </c>
+      <c r="M18" s="36">
+        <v>1</v>
+      </c>
       <c r="N18" s="33"/>
       <c r="O18" s="34"/>
       <c r="P18" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Sprint suivant</v>
       </c>
       <c r="Q18" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Indef</v>
+        <f t="shared" si="4"/>
+        <v>Terminé</v>
       </c>
       <c r="R18" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Indef</v>
+        <f t="shared" si="4"/>
+        <v>Terminé</v>
       </c>
       <c r="S18" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Indef</v>
+        <f t="shared" si="4"/>
+        <v>Terminé</v>
       </c>
       <c r="T18" s="18">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 1",Table1[[#This Row],[Temps requis (minutes)]],0)</f>
@@ -3758,7 +3782,7 @@
       </c>
       <c r="Y18" s="18">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 2",Table1[[#This Row],[Temps investis (minutes)]],0)</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Z18" s="18">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 3",Table1[[#This Row],[Temps investis (minutes)]],0)</f>
@@ -3799,30 +3823,38 @@
       <c r="H19" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="28"/>
+      <c r="I19" s="28">
+        <v>400</v>
+      </c>
       <c r="J19" s="35">
         <v>0</v>
       </c>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
+      <c r="K19" s="36">
+        <v>0.4</v>
+      </c>
+      <c r="L19" s="36">
+        <v>0.4</v>
+      </c>
+      <c r="M19" s="36">
+        <v>0.2</v>
+      </c>
       <c r="N19" s="33"/>
       <c r="O19" s="34"/>
       <c r="P19" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Sprint suivant</v>
       </c>
       <c r="Q19" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Indef</v>
+        <f t="shared" si="4"/>
+        <v>Retard</v>
       </c>
       <c r="R19" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Indef</v>
+        <f t="shared" si="4"/>
+        <v>Retard</v>
       </c>
       <c r="S19" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Indef</v>
+        <f t="shared" si="4"/>
+        <v>Retard</v>
       </c>
       <c r="T19" s="18">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 1",Table1[[#This Row],[Temps requis (minutes)]],0)</f>
@@ -3846,7 +3878,7 @@
       </c>
       <c r="Y19" s="18">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 2",Table1[[#This Row],[Temps investis (minutes)]],0)</f>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Z19" s="18">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 3",Table1[[#This Row],[Temps investis (minutes)]],0)</f>
@@ -3886,30 +3918,38 @@
       <c r="H20" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="28"/>
+      <c r="I20" s="28">
+        <v>1440</v>
+      </c>
       <c r="J20" s="35">
         <v>0</v>
       </c>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
+      <c r="K20" s="36">
+        <v>1</v>
+      </c>
+      <c r="L20" s="36">
+        <v>1</v>
+      </c>
+      <c r="M20" s="36">
+        <v>1</v>
+      </c>
       <c r="N20" s="33"/>
       <c r="O20" s="34"/>
       <c r="P20" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Sprint suivant</v>
       </c>
       <c r="Q20" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Indef</v>
+        <f t="shared" si="4"/>
+        <v>Terminé</v>
       </c>
       <c r="R20" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Indef</v>
+        <f t="shared" si="4"/>
+        <v>Terminé</v>
       </c>
       <c r="S20" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Indef</v>
+        <f t="shared" si="4"/>
+        <v>Terminé</v>
       </c>
       <c r="T20" s="18">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 1",Table1[[#This Row],[Temps requis (minutes)]],0)</f>
@@ -3933,7 +3973,7 @@
       </c>
       <c r="Y20" s="18">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 2",Table1[[#This Row],[Temps investis (minutes)]],0)</f>
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="Z20" s="18">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 3",Table1[[#This Row],[Temps investis (minutes)]],0)</f>
@@ -3971,30 +4011,38 @@
       <c r="H21" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="28"/>
+      <c r="I21" s="28">
+        <v>840</v>
+      </c>
       <c r="J21" s="31">
         <v>0</v>
       </c>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
+      <c r="K21" s="32">
+        <v>0</v>
+      </c>
+      <c r="L21" s="32">
+        <v>1</v>
+      </c>
+      <c r="M21" s="32">
+        <v>1</v>
+      </c>
       <c r="N21" s="33"/>
       <c r="O21" s="34"/>
       <c r="P21" s="8" t="str">
-        <f t="shared" ref="P21:P37" si="4">IF(OR($H21="",J21=""),"Indef",IF(J21&gt;=1,"Terminé",IF($H21&lt;=P$12,"Retard",IF(J21&gt;0,"Avancement","Sprint suivant"))))</f>
+        <f t="shared" ref="P21:P37" si="5">IF(OR($H21="",J21=""),"Indef",IF(J21&gt;=1,"Terminé",IF($H21&lt;=P$12,"Retard",IF(J21&gt;0,"Avancement","Sprint suivant"))))</f>
         <v>Sprint suivant</v>
       </c>
       <c r="Q21" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Indef</v>
+        <f t="shared" si="4"/>
+        <v>Sprint suivant</v>
       </c>
       <c r="R21" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Indef</v>
+        <f t="shared" si="4"/>
+        <v>Terminé</v>
       </c>
       <c r="S21" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Indef</v>
+        <f t="shared" si="4"/>
+        <v>Terminé</v>
       </c>
       <c r="T21" s="9">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 1",Table1[[#This Row],[Temps requis (minutes)]],0)</f>
@@ -4022,7 +4070,7 @@
       </c>
       <c r="Z21" s="9">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 3",Table1[[#This Row],[Temps investis (minutes)]],0)</f>
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="AA21" s="9">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 4",Table1[[#This Row],[Temps investis (minutes)]],0)</f>
@@ -4051,30 +4099,38 @@
       <c r="H22" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="28"/>
+      <c r="I22" s="28">
+        <v>0</v>
+      </c>
       <c r="J22" s="31">
         <v>0</v>
       </c>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
+      <c r="K22" s="32">
+        <v>0</v>
+      </c>
+      <c r="L22" s="32">
+        <v>0</v>
+      </c>
+      <c r="M22" s="32">
+        <v>0</v>
+      </c>
       <c r="N22" s="33"/>
       <c r="O22" s="34"/>
       <c r="P22" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Sprint suivant</v>
       </c>
       <c r="Q22" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Indef</v>
+        <f t="shared" si="4"/>
+        <v>Sprint suivant</v>
       </c>
       <c r="R22" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Indef</v>
+        <f t="shared" si="4"/>
+        <v>Retard</v>
       </c>
       <c r="S22" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Indef</v>
+        <f t="shared" si="4"/>
+        <v>Retard</v>
       </c>
       <c r="T22" s="9">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 1",Table1[[#This Row],[Temps requis (minutes)]],0)</f>
@@ -4131,30 +4187,38 @@
       <c r="H23" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="28"/>
+      <c r="I23" s="28">
+        <v>0</v>
+      </c>
       <c r="J23" s="31">
         <v>0</v>
       </c>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
+      <c r="K23" s="32">
+        <v>0</v>
+      </c>
+      <c r="L23" s="32">
+        <v>0</v>
+      </c>
+      <c r="M23" s="32">
+        <v>0</v>
+      </c>
       <c r="N23" s="33"/>
       <c r="O23" s="34"/>
       <c r="P23" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Sprint suivant</v>
       </c>
       <c r="Q23" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Indef</v>
+        <f t="shared" si="4"/>
+        <v>Sprint suivant</v>
       </c>
       <c r="R23" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Indef</v>
+        <f t="shared" si="4"/>
+        <v>Retard</v>
       </c>
       <c r="S23" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Indef</v>
+        <f t="shared" si="4"/>
+        <v>Retard</v>
       </c>
       <c r="T23" s="9">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 1",Table1[[#This Row],[Temps requis (minutes)]],0)</f>
@@ -4211,30 +4275,38 @@
       <c r="H24" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="28"/>
+      <c r="I24" s="28">
+        <v>300</v>
+      </c>
       <c r="J24" s="31">
         <v>0</v>
       </c>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
+      <c r="K24" s="32">
+        <v>0</v>
+      </c>
+      <c r="L24" s="32">
+        <v>0</v>
+      </c>
+      <c r="M24" s="32">
+        <v>0.5</v>
+      </c>
       <c r="N24" s="33"/>
       <c r="O24" s="34"/>
       <c r="P24" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Sprint suivant</v>
       </c>
       <c r="Q24" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Indef</v>
+        <f t="shared" si="4"/>
+        <v>Sprint suivant</v>
       </c>
       <c r="R24" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Indef</v>
+        <f t="shared" si="4"/>
+        <v>Retard</v>
       </c>
       <c r="S24" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Indef</v>
+        <f t="shared" si="4"/>
+        <v>Retard</v>
       </c>
       <c r="T24" s="9">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 1",Table1[[#This Row],[Temps requis (minutes)]],0)</f>
@@ -4262,7 +4334,7 @@
       </c>
       <c r="Z24" s="9">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 3",Table1[[#This Row],[Temps investis (minutes)]],0)</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AA24" s="9">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 4",Table1[[#This Row],[Temps investis (minutes)]],0)</f>
@@ -4285,34 +4357,44 @@
       <c r="F25" s="28">
         <v>1</v>
       </c>
-      <c r="G25" s="28"/>
+      <c r="G25" s="28">
+        <v>500</v>
+      </c>
       <c r="H25" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="28"/>
+      <c r="I25" s="28">
+        <v>500</v>
+      </c>
       <c r="J25" s="31">
         <v>0</v>
       </c>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
+      <c r="K25" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="L25" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="M25" s="32">
+        <v>0.3</v>
+      </c>
       <c r="N25" s="33"/>
       <c r="O25" s="34"/>
       <c r="P25" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Sprint suivant</v>
       </c>
       <c r="Q25" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Indef</v>
+        <f t="shared" si="4"/>
+        <v>Avancement</v>
       </c>
       <c r="R25" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Indef</v>
+        <f t="shared" si="4"/>
+        <v>Avancement</v>
       </c>
       <c r="S25" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Indef</v>
+        <f t="shared" si="4"/>
+        <v>Retard</v>
       </c>
       <c r="T25" s="9">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 1",Table1[[#This Row],[Temps requis (minutes)]],0)</f>
@@ -4328,7 +4410,7 @@
       </c>
       <c r="W25" s="9">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 4",Table1[[#This Row],[Temps requis (minutes)]],0)</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="X25" s="9">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 1",Table1[[#This Row],[Temps investis (minutes)]],0)</f>
@@ -4344,7 +4426,7 @@
       </c>
       <c r="AA25" s="9">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 4",Table1[[#This Row],[Temps investis (minutes)]],0)</f>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="2:34" x14ac:dyDescent="0.2">
@@ -4363,34 +4445,44 @@
       <c r="F26" s="28">
         <v>2</v>
       </c>
-      <c r="G26" s="28"/>
+      <c r="G26" s="28">
+        <v>200</v>
+      </c>
       <c r="H26" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="28"/>
+      <c r="I26" s="28">
+        <v>200</v>
+      </c>
       <c r="J26" s="31">
-        <v>0</v>
-      </c>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
+        <v>0.25</v>
+      </c>
+      <c r="K26" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="L26" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="M26" s="32">
+        <v>0.25</v>
+      </c>
       <c r="N26" s="33"/>
       <c r="O26" s="34"/>
       <c r="P26" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>Sprint suivant</v>
+        <f t="shared" si="5"/>
+        <v>Avancement</v>
       </c>
       <c r="Q26" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Indef</v>
+        <f t="shared" si="4"/>
+        <v>Avancement</v>
       </c>
       <c r="R26" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Indef</v>
+        <f t="shared" si="4"/>
+        <v>Avancement</v>
       </c>
       <c r="S26" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Indef</v>
+        <f t="shared" si="4"/>
+        <v>Retard</v>
       </c>
       <c r="T26" s="9">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 1",Table1[[#This Row],[Temps requis (minutes)]],0)</f>
@@ -4406,7 +4498,7 @@
       </c>
       <c r="W26" s="9">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 4",Table1[[#This Row],[Temps requis (minutes)]],0)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X26" s="9">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 1",Table1[[#This Row],[Temps investis (minutes)]],0)</f>
@@ -4422,7 +4514,7 @@
       </c>
       <c r="AA26" s="9">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 4",Table1[[#This Row],[Temps investis (minutes)]],0)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="2:34" x14ac:dyDescent="0.2">
@@ -4447,30 +4539,38 @@
       <c r="H27" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="I27" s="28"/>
+      <c r="I27" s="28">
+        <v>90</v>
+      </c>
       <c r="J27" s="31">
         <v>0</v>
       </c>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
+      <c r="K27" s="32">
+        <v>0</v>
+      </c>
+      <c r="L27" s="32">
+        <v>0</v>
+      </c>
+      <c r="M27" s="32">
+        <v>1</v>
+      </c>
       <c r="N27" s="33"/>
       <c r="O27" s="34"/>
       <c r="P27" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Sprint suivant</v>
       </c>
       <c r="Q27" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Indef</v>
+        <f t="shared" si="4"/>
+        <v>Sprint suivant</v>
       </c>
       <c r="R27" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Indef</v>
+        <f t="shared" si="4"/>
+        <v>Sprint suivant</v>
       </c>
       <c r="S27" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Indef</v>
+        <f t="shared" si="4"/>
+        <v>Terminé</v>
       </c>
       <c r="T27" s="9">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 1",Table1[[#This Row],[Temps requis (minutes)]],0)</f>
@@ -4502,7 +4602,7 @@
       </c>
       <c r="AA27" s="9">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 4",Table1[[#This Row],[Temps investis (minutes)]],0)</f>
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="2:34" x14ac:dyDescent="0.2">
@@ -4527,30 +4627,38 @@
       <c r="H28" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="I28" s="28"/>
+      <c r="I28" s="28">
+        <v>120</v>
+      </c>
       <c r="J28" s="31">
         <v>0</v>
       </c>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
+      <c r="K28" s="32">
+        <v>0</v>
+      </c>
+      <c r="L28" s="32">
+        <v>0</v>
+      </c>
+      <c r="M28" s="32">
+        <v>1</v>
+      </c>
       <c r="N28" s="33"/>
       <c r="O28" s="34"/>
       <c r="P28" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Sprint suivant</v>
       </c>
       <c r="Q28" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Indef</v>
+        <f t="shared" si="4"/>
+        <v>Sprint suivant</v>
       </c>
       <c r="R28" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Indef</v>
+        <f t="shared" si="4"/>
+        <v>Sprint suivant</v>
       </c>
       <c r="S28" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Indef</v>
+        <f t="shared" si="4"/>
+        <v>Terminé</v>
       </c>
       <c r="T28" s="9">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 1",Table1[[#This Row],[Temps requis (minutes)]],0)</f>
@@ -4582,7 +4690,7 @@
       </c>
       <c r="AA28" s="9">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 4",Table1[[#This Row],[Temps investis (minutes)]],0)</f>
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="2:34" x14ac:dyDescent="0.2">
@@ -4603,19 +4711,19 @@
       <c r="N29" s="33"/>
       <c r="O29" s="34"/>
       <c r="P29" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Indef</v>
       </c>
       <c r="Q29" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Indef</v>
       </c>
       <c r="R29" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Indef</v>
       </c>
       <c r="S29" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Indef</v>
       </c>
       <c r="T29" s="9">
@@ -4669,19 +4777,19 @@
       <c r="N30" s="33"/>
       <c r="O30" s="34"/>
       <c r="P30" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Indef</v>
       </c>
       <c r="Q30" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Indef</v>
       </c>
       <c r="R30" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Indef</v>
       </c>
       <c r="S30" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Indef</v>
       </c>
       <c r="T30" s="9">
@@ -4735,19 +4843,19 @@
       <c r="N31" s="33"/>
       <c r="O31" s="34"/>
       <c r="P31" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Indef</v>
       </c>
       <c r="Q31" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Indef</v>
       </c>
       <c r="R31" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Indef</v>
       </c>
       <c r="S31" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Indef</v>
       </c>
       <c r="T31" s="9">
@@ -4801,19 +4909,19 @@
       <c r="N32" s="33"/>
       <c r="O32" s="34"/>
       <c r="P32" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Indef</v>
       </c>
       <c r="Q32" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Indef</v>
       </c>
       <c r="R32" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Indef</v>
       </c>
       <c r="S32" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Indef</v>
       </c>
       <c r="T32" s="9">
@@ -4867,19 +4975,19 @@
       <c r="N33" s="33"/>
       <c r="O33" s="34"/>
       <c r="P33" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Indef</v>
       </c>
       <c r="Q33" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Indef</v>
       </c>
       <c r="R33" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Indef</v>
       </c>
       <c r="S33" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Indef</v>
       </c>
       <c r="T33" s="9">
@@ -4933,19 +5041,19 @@
       <c r="N34" s="33"/>
       <c r="O34" s="34"/>
       <c r="P34" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Indef</v>
       </c>
       <c r="Q34" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Indef</v>
       </c>
       <c r="R34" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Indef</v>
       </c>
       <c r="S34" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Indef</v>
       </c>
       <c r="T34" s="9">
@@ -4999,19 +5107,19 @@
       <c r="N35" s="33"/>
       <c r="O35" s="34"/>
       <c r="P35" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Indef</v>
       </c>
       <c r="Q35" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Indef</v>
       </c>
       <c r="R35" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Indef</v>
       </c>
       <c r="S35" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Indef</v>
       </c>
       <c r="T35" s="9">
@@ -5065,19 +5173,19 @@
       <c r="N36" s="33"/>
       <c r="O36" s="34"/>
       <c r="P36" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Indef</v>
       </c>
       <c r="Q36" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Indef</v>
       </c>
       <c r="R36" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Indef</v>
       </c>
       <c r="S36" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Indef</v>
       </c>
       <c r="T36" s="9">
@@ -5131,19 +5239,19 @@
       <c r="N37" s="33"/>
       <c r="O37" s="34"/>
       <c r="P37" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Indef</v>
       </c>
       <c r="Q37" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Indef</v>
       </c>
       <c r="R37" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Indef</v>
       </c>
       <c r="S37" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Indef</v>
       </c>
       <c r="T37" s="9">
@@ -5190,12 +5298,12 @@
       <c r="F38" s="43"/>
       <c r="G38" s="45">
         <f>SUBTOTAL(109,Table1[Temps requis (minutes)])</f>
-        <v>5940</v>
+        <v>6640</v>
       </c>
       <c r="H38" s="41"/>
       <c r="I38" s="45">
         <f>SUBTOTAL(109,Table1[Temps investis (minutes)])</f>
-        <v>800</v>
+        <v>5590</v>
       </c>
       <c r="J38" s="46"/>
       <c r="K38" s="38"/>
@@ -5275,7 +5383,7 @@
       </c>
       <c r="I180" s="3">
         <f>SUM(Table1[Temps S2])</f>
-        <v>0</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="181" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
@@ -5296,7 +5404,7 @@
       </c>
       <c r="I181" s="3">
         <f>SUM(Table1[Temps S3])</f>
-        <v>0</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="182" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
@@ -5313,11 +5421,11 @@
       </c>
       <c r="H182" s="3">
         <f>SUM(Table1[Prev 03])</f>
-        <v>480</v>
+        <v>1180</v>
       </c>
       <c r="I182" s="3">
         <f>SUM(Table1[Temps S4])</f>
-        <v>0</v>
+        <v>910</v>
       </c>
     </row>
     <row r="183" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
@@ -5330,11 +5438,11 @@
       </c>
       <c r="H183" s="3">
         <f>SUM(H179:H182)</f>
-        <v>5940</v>
+        <v>6640</v>
       </c>
       <c r="I183" s="3">
         <f>SUM(I179:I182)</f>
-        <v>800</v>
+        <v>5590</v>
       </c>
     </row>
     <row r="253" hidden="1" x14ac:dyDescent="0.2"/>
@@ -5349,24 +5457,24 @@
     <mergeCell ref="A1:N1"/>
   </mergeCells>
   <conditionalFormatting sqref="E13:F37">
-    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:M37">
-    <cfRule type="expression" dxfId="28" priority="1">
+    <cfRule type="expression" dxfId="57" priority="1">
       <formula>P13="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" dxfId="56" priority="2">
       <formula>P13="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="3">
+    <cfRule type="expression" dxfId="55" priority="3">
       <formula>P13="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
